--- a/data/trans_bre/P9_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,67</t>
+          <t>-0,49; 10,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 20,43</t>
+          <t>8,44; 21,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,68</t>
+          <t>-1,07; 7,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 149,0</t>
+          <t>-6,62; 165,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,2; 260,82</t>
+          <t>60,99; 250,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 133,21</t>
+          <t>-8,9; 123,2</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,9</t>
+          <t>2,73; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,58</t>
+          <t>3,12; 12,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,4</t>
+          <t>2,47; 10,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 11,08</t>
+          <t>1,18; 10,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,11; 149,52</t>
+          <t>22,95; 157,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 148,14</t>
+          <t>21,94; 151,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,36; 172,94</t>
+          <t>20,83; 156,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 73,24</t>
+          <t>5,52; 71,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,74</t>
+          <t>2,56; 11,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,02</t>
+          <t>0,33; 11,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,18</t>
+          <t>-0,87; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,75</t>
+          <t>-0,96; 8,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,37; 394,73</t>
+          <t>39,64; 355,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 122,91</t>
+          <t>1,04; 128,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 152,94</t>
+          <t>-10,71; 149,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 78,46</t>
+          <t>-5,64; 76,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,23</t>
+          <t>6,4; 14,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,4</t>
+          <t>11,33; 20,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,02</t>
+          <t>6,89; 19,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,49</t>
+          <t>0,26; 11,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>118,78; 634,54</t>
+          <t>113,51; 622,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,41; 167,62</t>
+          <t>68,87; 167,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 138,26</t>
+          <t>34,72; 144,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 88,55</t>
+          <t>0,89; 80,87</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,77</t>
+          <t>-1,75; 10,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 22,74</t>
+          <t>7,55; 23,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 11,55</t>
+          <t>0,22; 11,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,14</t>
+          <t>0,82; 8,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 193,62</t>
+          <t>-18,35; 194,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,0; 266,67</t>
+          <t>48,96; 282,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 218,17</t>
+          <t>0,37; 225,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 200,54</t>
+          <t>8,2; 187,43</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 13,66</t>
+          <t>2,88; 14,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,76</t>
+          <t>-2,77; 9,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 13,9</t>
+          <t>0,86; 13,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,6</t>
+          <t>-0,19; 9,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,23; 231,1</t>
+          <t>24,49; 232,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 99,12</t>
+          <t>-19,42; 92,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 127,57</t>
+          <t>3,84; 120,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 94,03</t>
+          <t>-1,72; 105,11</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,56</t>
+          <t>0,87; 7,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,3</t>
+          <t>4,52; 11,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,24</t>
+          <t>6,53; 14,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 10,51</t>
+          <t>-2,45; 10,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 100,52</t>
+          <t>7,12; 94,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,14; 201,43</t>
+          <t>50,14; 195,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,1; 212,11</t>
+          <t>61,96; 211,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 90,16</t>
+          <t>-14,67; 86,92</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,67</t>
+          <t>2,45; 9,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 10,52</t>
+          <t>3,14; 10,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,03</t>
+          <t>3,74; 9,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,03</t>
+          <t>5,88; 13,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,92; 111,8</t>
+          <t>21,39; 111,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,16; 120,24</t>
+          <t>23,94; 115,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,62; 212,94</t>
+          <t>46,56; 199,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,86; 148,27</t>
+          <t>46,83; 149,17</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,79; 8,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 11,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,77; 10,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,14</t>
+          <t>4,14; 8,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>53,75; 106,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>61,65; 108,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>67,16; 119,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>31,95; 67,53</t>
+          <t>30,55; 67,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 10,3</t>
+          <t>-0,27; 10,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 21,34</t>
+          <t>8,03; 21,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 165,77</t>
+          <t>-5,04; 159,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,99; 250,85</t>
+          <t>56,66; 268,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,27</t>
+          <t>2,6; 11,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 12,59</t>
+          <t>2,3; 12,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,74</t>
+          <t>2,71; 10,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 157,32</t>
+          <t>21,06; 142,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,94; 151,54</t>
+          <t>17,08; 148,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 156,69</t>
+          <t>21,72; 157,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,31</t>
+          <t>3,48; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 11,23</t>
+          <t>-0,03; 11,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,11</t>
+          <t>-1,14; 8,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,64; 355,16</t>
+          <t>47,47; 348,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 128,57</t>
+          <t>-1,53; 123,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 149,4</t>
+          <t>-13,2; 153,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,63</t>
+          <t>6,58; 14,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 20,4</t>
+          <t>11,09; 20,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 19,97</t>
+          <t>7,25; 19,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>113,51; 622,24</t>
+          <t>113,25; 625,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,87; 167,97</t>
+          <t>66,28; 173,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,72; 144,55</t>
+          <t>36,82; 140,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 10,24</t>
+          <t>-2,11; 9,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 23,23</t>
+          <t>7,3; 22,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 11,67</t>
+          <t>0,51; 11,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 194,35</t>
+          <t>-23,11; 195,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,96; 282,71</t>
+          <t>45,01; 265,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 225,83</t>
+          <t>1,19; 243,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 14,13</t>
+          <t>3,25; 14,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 9,47</t>
+          <t>-2,43; 9,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,56</t>
+          <t>-0,18; 13,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,49; 232,81</t>
+          <t>30,23; 241,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 92,79</t>
+          <t>-16,63; 94,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 120,39</t>
+          <t>-2,94; 121,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,56</t>
+          <t>0,64; 7,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,27</t>
+          <t>4,53; 11,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,44</t>
+          <t>6,34; 13,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 94,63</t>
+          <t>5,5; 99,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,14; 195,29</t>
+          <t>50,72; 196,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,96; 211,13</t>
+          <t>55,85; 199,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,45</t>
+          <t>2,91; 10,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,14; 10,26</t>
+          <t>3,22; 10,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,94</t>
+          <t>3,86; 9,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,39; 111,21</t>
+          <t>25,22; 120,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,94; 115,67</t>
+          <t>27,62; 118,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,56; 199,59</t>
+          <t>55,7; 209,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,02</t>
+          <t>4,96; 7,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,01</t>
+          <t>7,14; 10,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,22</t>
+          <t>6,74; 10,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>53,75; 106,62</t>
+          <t>56,03; 105,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>61,65; 108,07</t>
+          <t>60,35; 103,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,16; 119,8</t>
+          <t>66,87; 117,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
